--- a/EmployeeManagment/TestData/Orange_data.xlsx
+++ b/EmployeeManagment/TestData/Orange_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajitd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajitd\Desktop\CSharp\AutomationFramework\EmployeeManagment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B3A3FE5-CA67-4188-81BB-6AF0654D0D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B331AA4-8096-41D4-927E-35820DCB219D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FCDE4715-92CB-4B8D-BFA2-162844F1824F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Invalid credential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peter </t>
+  </si>
+  <si>
+    <t>peter123</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF9BBD7-53BF-4128-B359-EED06BD8055D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -435,6 +441,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EmployeeManagment/TestData/Orange_data.xlsx
+++ b/EmployeeManagment/TestData/Orange_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajitd\Desktop\CSharp\AutomationFramework\EmployeeManagment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B331AA4-8096-41D4-927E-35820DCB219D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839FF5B1-557A-4C79-835E-73375432A4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FCDE4715-92CB-4B8D-BFA2-162844F1824F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{FCDE4715-92CB-4B8D-BFA2-162844F1824F}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidLoginData" sheetId="1" r:id="rId1"/>
+    <sheet name="AddValidEmployee" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -60,6 +61,33 @@
   </si>
   <si>
     <t>peter123</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>middlename</t>
+  </si>
+  <si>
+    <t>employeename</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Admin123</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>mick</t>
+  </si>
+  <si>
+    <t>john mick</t>
   </si>
 </sst>
 </file>
@@ -413,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF9BBD7-53BF-4128-B359-EED06BD8055D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -455,4 +483,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FA8D7A-8877-4F84-8D06-6B424274CF49}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>